--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL387_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL387_00002.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\IRAD\IRAD 2015\Programs\OOI Phase 2\Post Delivery 7 support\Asset Management Data\ingestion-csvs_20151204\ingestion-csvs\CP05MOAS-GL387\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2640" windowWidth="23076" windowHeight="8736" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="3120" yWindow="2640" windowWidth="23070" windowHeight="8730" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>Ref Des</t>
   </si>
@@ -145,6 +145,7 @@
         <sz val="12"/>
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -189,6 +190,9 @@
   </si>
   <si>
     <t>N00140</t>
+  </si>
+  <si>
+    <t>CC_bsipar_par_scaling</t>
   </si>
 </sst>
 </file>
@@ -258,6 +262,7 @@
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -284,7 +289,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,6 +305,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,7 +386,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -440,6 +451,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -587,7 +601,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -622,7 +636,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -837,18 +851,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="9" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="9" width="17.7109375" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>34</v>
       </c>
@@ -886,7 +900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -932,18 +946,18 @@
         <v>-70.708333333333329</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
     </row>
   </sheetData>
@@ -961,20 +975,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" customWidth="1"/>
-    <col min="6" max="6" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1000,7 +1016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>24</v>
       </c>
@@ -1036,7 +1052,7 @@
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -1072,7 +1088,7 @@
       <c r="Q3" s="15"/>
       <c r="R3" s="15"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
@@ -1108,7 +1124,7 @@
       <c r="Q4" s="15"/>
       <c r="R4" s="15"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
@@ -1144,7 +1160,7 @@
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="12"/>
@@ -1164,7 +1180,7 @@
       <c r="Q6" s="15"/>
       <c r="R6" s="15"/>
     </row>
-    <row r="7" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
@@ -1195,7 +1211,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -1226,7 +1242,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -1257,7 +1273,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
@@ -1288,7 +1304,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:18" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="12"/>
@@ -1303,7 +1319,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>26</v>
       </c>
@@ -1330,7 +1346,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:18" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="12"/>
@@ -1345,7 +1361,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>27</v>
       </c>
@@ -1372,7 +1388,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:18" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="12"/>
@@ -1387,7 +1403,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>28</v>
       </c>
@@ -1406,15 +1422,19 @@
       <c r="F16" s="16">
         <v>50165</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
+      <c r="G16" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="27">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:13" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="12"/>
@@ -1429,7 +1449,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>29</v>
       </c>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL387_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL387_00002.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>Ref Des</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>CC_bsipar_par_scaling</t>
+  </si>
+  <si>
+    <t>OL000356</t>
   </si>
 </sst>
 </file>
@@ -976,7 +979,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,7 +1465,9 @@
       <c r="D18" s="12">
         <v>2</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
       <c r="F18" s="16">
         <v>387</v>
       </c>
